--- a/biology/Zoologie/Hermeuptychia_hermes/Hermeuptychia_hermes.xlsx
+++ b/biology/Zoologie/Hermeuptychia_hermes/Hermeuptychia_hermes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermeuptychia hermes  est une espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae, de la tribu des Satyrini, de la sous-tribu des Euptychiina. C'est l'espèce type pour le genre.
 </t>
@@ -511,50 +523,58 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Hermeuptychia hermes  a été décrite par l'entomologiste danois Johan Christian Fabricius en 1775, sous le nom initial de Papilio hermes[1].
-Synonymie
-Papilio hermes (Fabricius, 1775) - protonyme
-Papilio camerta (Cramer, 1780) [2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hermeuptychia hermes  a été décrite par l'entomologiste danois Johan Christian Fabricius en 1775, sous le nom initial de Papilio hermes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hermeuptychia_hermes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hermeuptychia_hermes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Papilio hermes (Fabricius, 1775) - protonyme
+Papilio camerta (Cramer, 1780) 
 Oreas canthe (Hübner, 1811)
 Euptychia hermessa (Hübner, 1819)
 Euptychia nana (Möschler, 1877)
-Euptychia camerta (Godman &amp; Salvin, 1880) [3]
+Euptychia camerta (Godman &amp; Salvin, 1880) 
 Hermeuptychia f. hermesina (W.Forster, 1964)
 Hermeuptychia hermes isabella (Anken, 1994)
-Cissia hermes [4]
-Nom vernaculaire
-Hermeuptychia hermes se nomme Hermes Satyr en anglais.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hermeuptychia_hermes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hermeuptychia_hermes</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+Cissia hermes </t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -577,10 +597,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hermeuptychia hermes se nomme Hermes Satyr en anglais.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,16 +634,144 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hermeuptychia_hermes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hermeuptychia_hermes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hermeuptychia_hermes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hermeuptychia_hermes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermeuptychia hermes est présent au Texas, au Mexique, au Brésil, en Bolivie, au Surinam et en Guyane
-Biotope
-Hermeuptychia hermes réside en lisière des sous-bois humides et denses, les larves sont sur les Poaceae[5].
-Protection
-Pas de statut de protection particulier
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hermeuptychia_hermes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hermeuptychia_hermes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hermeuptychia hermes réside en lisière des sous-bois humides et denses, les larves sont sur les Poaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hermeuptychia_hermes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hermeuptychia_hermes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 </t>
         </is>
       </c>
